--- a/services/core-api/app/templates/project/IRT_Template.xlsx
+++ b/services/core-api/app/templates/project/IRT_Template.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\229916\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csquirre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4BAAD7-CF56-4629-8BFB-A9815671A0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1D3F6A-F4F4-4172-BCD1-5ECD56B53DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="i6kNgOeI1UwySv+iGITYct85e+XY4lfbH0vpklbDnChcbLSFnwXNQoLI/UiSj/kxPkRLwuisE9Zh/zOm13cWiQ==" workbookSaltValue="sjli421dYO5cGC3fM9/rZA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="39570" yWindow="1170" windowWidth="28800" windowHeight="15435" xr2:uid="{DA34635A-F533-43BD-A37F-7CDE45871B55}"/>
+    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA34635A-F533-43BD-A37F-7CDE45871B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,18 +59,12 @@
     <t xml:space="preserve">Project Title: </t>
   </si>
   <si>
-    <t>Mine Site Name:</t>
-  </si>
-  <si>
     <t>Mine Project Contact Name:</t>
   </si>
   <si>
     <t>Mine Review Committee Chair Name:</t>
   </si>
   <si>
-    <t>Instructions for Use: &lt;Some text here on how this form works for import to MineSpace&gt;</t>
-  </si>
-  <si>
     <t>Location in Final Application</t>
   </si>
   <si>
@@ -3910,6 +3905,12 @@
       </rPr>
       <t>Waste (Refuse and Emissions) Management Plan</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the Required, Methods and Comments Sections below as applicable to the project.  Note that if Methods is selected then the comment section must be filled out.  </t>
+  </si>
+  <si>
+    <t>ADF</t>
   </si>
 </sst>
 </file>
@@ -3919,7 +3920,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3991,14 +3992,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4006,12 +3999,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial"/>
@@ -4027,6 +4014,26 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4223,7 +4230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
@@ -4261,125 +4268,199 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5732,25 +5813,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -5875,25 +5937,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -5956,25 +5999,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6037,25 +6061,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6118,25 +6123,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6199,25 +6185,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6280,25 +6247,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6361,25 +6309,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6442,25 +6371,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6523,25 +6433,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6604,25 +6495,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6685,25 +6557,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6766,25 +6619,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6847,25 +6681,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -6928,25 +6743,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7009,25 +6805,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7090,25 +6867,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7171,25 +6929,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7252,25 +6991,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7333,25 +7053,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7414,25 +7115,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7495,25 +7177,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7576,25 +7239,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7657,25 +7301,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7738,25 +7363,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7819,25 +7425,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7900,25 +7487,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -7981,25 +7549,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8062,25 +7611,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8143,25 +7673,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8224,25 +7735,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8305,25 +7797,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8386,25 +7859,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8467,25 +7921,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8548,25 +7983,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8629,25 +8045,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8710,25 +8107,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8791,25 +8169,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8872,25 +8231,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -8953,25 +8293,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9034,25 +8355,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9115,25 +8417,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9196,25 +8479,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9277,25 +8541,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9358,25 +8603,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9439,25 +8665,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9520,25 +8727,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9601,25 +8789,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9682,25 +8851,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9763,25 +8913,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9844,25 +8975,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -9925,25 +9037,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10006,25 +9099,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10087,25 +9161,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10168,25 +9223,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10249,25 +9285,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10330,25 +9347,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10411,25 +9409,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10492,25 +9471,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10573,25 +9533,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10654,25 +9595,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10735,25 +9657,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10816,25 +9719,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10897,25 +9781,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -10978,25 +9843,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11059,25 +9905,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11140,25 +9967,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11221,25 +10029,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11302,25 +10091,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11383,25 +10153,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11464,25 +10215,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11545,25 +10277,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11626,25 +10339,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11707,25 +10401,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11788,25 +10463,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11869,25 +10525,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -11950,25 +10587,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12031,25 +10649,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12112,25 +10711,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12193,25 +10773,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12274,25 +10835,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12355,25 +10897,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12436,25 +10959,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12517,25 +11021,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12598,25 +11083,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12679,25 +11145,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12760,25 +11207,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12841,25 +11269,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -12922,25 +11331,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13003,25 +11393,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13084,25 +11455,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13165,25 +11517,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13246,25 +11579,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13327,25 +11641,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13408,25 +11703,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13489,25 +11765,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13570,25 +11827,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13651,25 +11889,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13732,25 +11951,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13813,25 +12013,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13894,25 +12075,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -13975,25 +12137,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14056,25 +12199,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14137,25 +12261,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14218,25 +12323,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14299,25 +12385,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14380,25 +12447,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14461,25 +12509,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14542,25 +12571,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14623,25 +12633,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14704,25 +12695,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14785,25 +12757,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14866,25 +12819,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -14947,25 +12881,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15028,25 +12943,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15109,25 +13005,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15190,25 +13067,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15271,25 +13129,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15352,25 +13191,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15433,25 +13253,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15514,25 +13315,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15595,25 +13377,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15676,25 +13439,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15757,25 +13501,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15838,25 +13563,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -15919,25 +13625,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -17240,25 +14927,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -17321,25 +14989,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -17402,25 +15051,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -17483,25 +15113,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -17564,25 +15175,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -17645,25 +15237,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -17726,25 +15299,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -17807,25 +15361,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -17888,25 +15423,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -17969,25 +15485,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -18050,25 +15547,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -18131,25 +15609,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -18212,25 +15671,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -18293,25 +15733,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -18374,25 +15795,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -18455,25 +15857,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -18536,25 +15919,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -18617,25 +15981,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -20434,25 +17779,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -20515,25 +17841,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -20596,25 +17903,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -20677,25 +17965,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -20758,25 +18027,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -20839,25 +18089,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -20920,25 +18151,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -21001,25 +18213,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -21082,25 +18275,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -21163,25 +18337,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -21244,25 +18399,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -21325,25 +18461,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -21406,25 +18523,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -21487,25 +18585,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -21568,25 +18647,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -21649,25 +18709,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -22474,25 +19515,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -22555,25 +19577,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -22636,25 +19639,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -22717,25 +19701,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -22798,25 +19763,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -22879,25 +19825,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -22960,25 +19887,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23041,25 +19949,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23122,25 +20011,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23203,25 +20073,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23284,25 +20135,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23365,25 +20197,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23446,25 +20259,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23527,25 +20321,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23608,25 +20383,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23689,25 +20445,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23770,25 +20507,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23851,25 +20569,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -23932,25 +20631,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24013,25 +20693,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24094,25 +20755,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24175,25 +20817,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24256,25 +20879,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24337,25 +20941,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24418,25 +21003,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24499,25 +21065,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24580,25 +21127,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24661,25 +21189,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24742,25 +21251,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24823,25 +21313,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -24904,25 +21375,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-CA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>FALSE</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -25235,2110 +21687,2111 @@
   <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="80.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" style="29" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="70.140625" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="54"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+      <c r="A3" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
+      <c r="A4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
+      <c r="A5" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
+      <c r="A6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="17"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="51" t="b">
+        <v>10</v>
+      </c>
+      <c r="B10" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C10" s="52" t="b">
+      <c r="C10" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="17"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="51" t="b">
+        <v>11</v>
+      </c>
+      <c r="B11" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="52" t="b">
+      <c r="C11" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="51" t="b">
+        <v>13</v>
+      </c>
+      <c r="B13" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="52" t="b">
+      <c r="C13" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="17"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="51" t="b">
+        <v>14</v>
+      </c>
+      <c r="B14" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C14" s="52" t="b">
+      <c r="C14" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="17"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="51" t="b">
+        <v>15</v>
+      </c>
+      <c r="B15" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C15" s="52" t="b">
+      <c r="C15" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="17"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="51" t="b">
+        <v>16</v>
+      </c>
+      <c r="B16" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C16" s="52" t="b">
+      <c r="C16" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="17"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="51" t="b">
+        <v>17</v>
+      </c>
+      <c r="B17" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="52" t="b">
+      <c r="C17" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="51" t="b">
+        <v>18</v>
+      </c>
+      <c r="B18" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="52" t="b">
+      <c r="C18" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="17"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="51" t="b">
+        <v>19</v>
+      </c>
+      <c r="B19" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="52" t="b">
+      <c r="C19" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="17"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="51" t="b">
+        <v>20</v>
+      </c>
+      <c r="B20" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="17"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="51" t="b">
+        <v>21</v>
+      </c>
+      <c r="B21" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="52" t="b">
+      <c r="C21" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="17"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="36" t="b">
+        <v>23</v>
+      </c>
+      <c r="B23" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C23" s="37" t="b">
+      <c r="C23" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="17"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="36" t="b">
+        <v>24</v>
+      </c>
+      <c r="B24" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="37" t="b">
+      <c r="C24" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="17"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="36" t="b">
+        <v>25</v>
+      </c>
+      <c r="B25" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C25" s="37" t="b">
+      <c r="C25" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="17"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="36" t="b">
+        <v>27</v>
+      </c>
+      <c r="B27" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C27" s="37" t="b">
+      <c r="C27" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="17"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="36" t="b">
+        <v>28</v>
+      </c>
+      <c r="B28" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C28" s="37" t="b">
+      <c r="C28" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="17"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="17"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="36" t="b">
+        <v>30</v>
+      </c>
+      <c r="B30" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C30" s="37" t="b">
+      <c r="C30" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="17"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="36" t="b">
+        <v>31</v>
+      </c>
+      <c r="B31" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C31" s="37" t="b">
+      <c r="C31" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="17"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="36" t="b">
+        <v>32</v>
+      </c>
+      <c r="B32" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C32" s="37" t="b">
+      <c r="C32" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="17"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="36" t="b">
+        <v>33</v>
+      </c>
+      <c r="B33" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C33" s="37" t="b">
+      <c r="C33" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="17"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="36" t="b">
+        <v>34</v>
+      </c>
+      <c r="B34" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C34" s="37" t="b">
+      <c r="C34" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="17"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="41"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="17"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="36" t="b">
+        <v>36</v>
+      </c>
+      <c r="B36" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="37" t="b">
+      <c r="C36" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="17"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="36" t="b">
+        <v>37</v>
+      </c>
+      <c r="B37" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C37" s="37" t="b">
+      <c r="C37" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="17"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="36" t="b">
+        <v>38</v>
+      </c>
+      <c r="B38" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C38" s="37" t="b">
+      <c r="C38" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="17"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="38"/>
       <c r="C39" s="39"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="17"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="36" t="b">
+        <v>40</v>
+      </c>
+      <c r="B40" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C40" s="37" t="b">
+      <c r="C40" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="17"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="36" t="b">
+        <v>41</v>
+      </c>
+      <c r="B41" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C41" s="37" t="b">
+      <c r="C41" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="17"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="38"/>
       <c r="C42" s="39"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="17"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="36" t="b">
+        <v>43</v>
+      </c>
+      <c r="B43" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C43" s="37" t="b">
+      <c r="C43" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="17"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="36" t="b">
+        <v>44</v>
+      </c>
+      <c r="B44" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C44" s="37" t="b">
+      <c r="C44" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="17"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="36" t="b">
+        <v>45</v>
+      </c>
+      <c r="B45" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C45" s="37" t="b">
+      <c r="C45" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="17"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="38"/>
       <c r="C46" s="39"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="17"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="36" t="b">
+        <v>47</v>
+      </c>
+      <c r="B47" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C47" s="37" t="b">
+      <c r="C47" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="17"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="36" t="b">
+        <v>48</v>
+      </c>
+      <c r="B48" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C48" s="37" t="b">
+      <c r="C48" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="17"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="36" t="b">
+        <v>49</v>
+      </c>
+      <c r="B49" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C49" s="37" t="b">
+      <c r="C49" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="17"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="36" t="b">
+        <v>50</v>
+      </c>
+      <c r="B50" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C50" s="37" t="b">
+      <c r="C50" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="17"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="36" t="b">
+        <v>51</v>
+      </c>
+      <c r="B51" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C51" s="37" t="b">
+      <c r="C51" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="17"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="36" t="b">
+        <v>52</v>
+      </c>
+      <c r="B52" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C52" s="37" t="b">
+      <c r="C52" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="17"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="36" t="b">
+        <v>53</v>
+      </c>
+      <c r="B53" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C53" s="37" t="b">
+      <c r="C53" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="17"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="36" t="b">
+        <v>55</v>
+      </c>
+      <c r="B55" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C55" s="42"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="17"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="36" t="b">
+        <v>56</v>
+      </c>
+      <c r="B56" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="17"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="36" t="b">
+        <v>57</v>
+      </c>
+      <c r="B57" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="17"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="36" t="b">
+        <v>58</v>
+      </c>
+      <c r="B58" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C58" s="42"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="17"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59" s="40"/>
       <c r="C59" s="41"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="17"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="36" t="b">
+        <v>60</v>
+      </c>
+      <c r="B60" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C60" s="42"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="17"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="36" t="b">
+        <v>61</v>
+      </c>
+      <c r="B61" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C61" s="42"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="17"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="36" t="b">
+        <v>62</v>
+      </c>
+      <c r="B62" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C62" s="42"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="17"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="36" t="b">
+        <v>63</v>
+      </c>
+      <c r="B63" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="17"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="36" t="b">
+        <v>64</v>
+      </c>
+      <c r="B64" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="17"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="14"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="36" t="b">
+        <v>65</v>
+      </c>
+      <c r="B65" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="17"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="36" t="b">
+        <v>66</v>
+      </c>
+      <c r="B66" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C66" s="42"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="17"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="14"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="36" t="b">
+        <v>67</v>
+      </c>
+      <c r="B67" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="17"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="36" t="b">
+        <v>68</v>
+      </c>
+      <c r="B68" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C68" s="42"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="17"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="36" t="b">
+        <v>69</v>
+      </c>
+      <c r="B69" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="17"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="14"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="36" t="b">
+        <v>70</v>
+      </c>
+      <c r="B70" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C70" s="42"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="17"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="17"/>
+        <v>71</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="36" t="b">
+        <v>72</v>
+      </c>
+      <c r="B72" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="17"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="B73" s="46"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="36" t="b">
+        <v>74</v>
+      </c>
+      <c r="B74" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="17"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="36" t="b">
+        <v>75</v>
+      </c>
+      <c r="B75" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C75" s="42"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="17"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="36" t="b">
+        <v>76</v>
+      </c>
+      <c r="B76" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C76" s="42"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="17"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="36" t="b">
+        <v>77</v>
+      </c>
+      <c r="B77" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="17"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="36" t="b">
+        <v>78</v>
+      </c>
+      <c r="B78" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C78" s="42"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="17"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="14"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="36" t="b">
+        <v>79</v>
+      </c>
+      <c r="B79" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C79" s="42"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="17"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="36" t="b">
+        <v>80</v>
+      </c>
+      <c r="B80" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="17"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="14"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="36" t="b">
+        <v>81</v>
+      </c>
+      <c r="B81" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C81" s="36" t="b">
+      <c r="C81" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="17"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="14"/>
     </row>
     <row r="82" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="36" t="b">
+        <v>82</v>
+      </c>
+      <c r="B82" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C82" s="37" t="b">
+      <c r="C82" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="17"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="36" t="b">
+        <v>83</v>
+      </c>
+      <c r="B83" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C83" s="36" t="b">
+      <c r="C83" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="17"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="36" t="b">
+        <v>84</v>
+      </c>
+      <c r="B84" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C84" s="37" t="b">
+      <c r="C84" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="17"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="14"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B85" s="38"/>
       <c r="C85" s="39"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="17"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="14"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="36" t="b">
+        <v>86</v>
+      </c>
+      <c r="B86" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C86" s="42"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="17"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="14"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="36" t="b">
+        <v>87</v>
+      </c>
+      <c r="B87" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C87" s="42"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="17"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="14"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="36" t="b">
+        <v>88</v>
+      </c>
+      <c r="B88" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C88" s="42"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="17"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="14"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="36" t="b">
+        <v>89</v>
+      </c>
+      <c r="B89" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C89" s="42"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="17"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="14"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="36" t="b">
+        <v>90</v>
+      </c>
+      <c r="B90" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C90" s="42"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="17"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="14"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="36" t="b">
+        <v>91</v>
+      </c>
+      <c r="B91" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C91" s="42"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="17"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="14"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" s="36" t="b">
+        <v>92</v>
+      </c>
+      <c r="B92" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C92" s="42"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="17"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="14"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" s="36" t="b">
+        <v>93</v>
+      </c>
+      <c r="B93" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C93" s="42"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="17"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="14"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" s="36" t="b">
+        <v>94</v>
+      </c>
+      <c r="B94" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C94" s="42"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="17"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="14"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="36" t="b">
+        <v>95</v>
+      </c>
+      <c r="B95" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C95" s="42"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="17"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="46"/>
-      <c r="C96" s="47"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="17"/>
+        <v>96</v>
+      </c>
+      <c r="B96" s="50"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" s="36" t="b">
+        <v>97</v>
+      </c>
+      <c r="B97" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C97" s="42"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="17"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="36" t="b">
+        <v>98</v>
+      </c>
+      <c r="B98" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C98" s="42"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="17"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" s="36" t="b">
+        <v>99</v>
+      </c>
+      <c r="B99" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C99" s="42"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="17"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="36" t="b">
+        <v>100</v>
+      </c>
+      <c r="B100" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C100" s="42"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="17"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="14"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="17"/>
+        <v>101</v>
+      </c>
+      <c r="B101" s="35"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" s="36" t="b">
+        <v>102</v>
+      </c>
+      <c r="B102" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C102" s="42"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="17"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="36" t="b">
+        <v>103</v>
+      </c>
+      <c r="B103" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C103" s="36" t="b">
+      <c r="C103" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="17"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="14"/>
     </row>
     <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" s="36" t="b">
+        <v>104</v>
+      </c>
+      <c r="B104" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C104" s="36" t="b">
+      <c r="C104" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="17"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="14"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="36" t="b">
+        <v>105</v>
+      </c>
+      <c r="B105" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C105" s="36" t="b">
+      <c r="C105" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="17"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B106" s="38"/>
       <c r="C106" s="39"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="17"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="14"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" s="36" t="b">
+        <v>107</v>
+      </c>
+      <c r="B107" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C107" s="36" t="b">
+      <c r="C107" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="17"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" s="36" t="b">
+        <v>108</v>
+      </c>
+      <c r="B108" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C108" s="36" t="b">
+      <c r="C108" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="17"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B109" s="40"/>
       <c r="C109" s="41"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="17"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="62"/>
+      <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" s="36" t="b">
+        <v>110</v>
+      </c>
+      <c r="B110" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C110" s="36" t="b">
+      <c r="C110" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="17"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="14"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" s="36" t="b">
+        <v>111</v>
+      </c>
+      <c r="B111" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C111" s="36" t="b">
+      <c r="C111" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="17"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="14"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" s="36" t="b">
+        <v>112</v>
+      </c>
+      <c r="B112" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C112" s="36" t="b">
+      <c r="C112" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="17"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="14"/>
     </row>
     <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="48"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="17"/>
+        <v>113</v>
+      </c>
+      <c r="B113" s="52"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="14"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" s="36" t="b">
+        <v>114</v>
+      </c>
+      <c r="B114" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C114" s="42"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="17"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="14"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" s="36" t="b">
+        <v>115</v>
+      </c>
+      <c r="B115" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C115" s="42"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="17"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="14"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" s="36" t="b">
+        <v>116</v>
+      </c>
+      <c r="B116" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C116" s="42"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="17"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="59"/>
+      <c r="F116" s="14"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" s="36" t="b">
+        <v>117</v>
+      </c>
+      <c r="B117" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C117" s="42"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="17"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="59"/>
+      <c r="F117" s="14"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="36" t="b">
+        <v>118</v>
+      </c>
+      <c r="B118" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C118" s="42"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="17"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="59"/>
+      <c r="F118" s="14"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="36" t="b">
+        <v>119</v>
+      </c>
+      <c r="B119" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C119" s="42"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="17"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="59"/>
+      <c r="F119" s="14"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="36" t="b">
+        <v>120</v>
+      </c>
+      <c r="B120" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C120" s="42"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="17"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="14"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" s="36" t="b">
+        <v>121</v>
+      </c>
+      <c r="B121" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C121" s="42"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="17"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="14"/>
     </row>
     <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" s="36" t="b">
+        <v>122</v>
+      </c>
+      <c r="B122" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C122" s="42"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="17"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="59"/>
+      <c r="F122" s="14"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" s="36" t="b">
+        <v>123</v>
+      </c>
+      <c r="B123" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C123" s="42"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="17"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="59"/>
+      <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" s="36" t="b">
+        <v>124</v>
+      </c>
+      <c r="B124" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C124" s="42"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="17"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="14"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125" s="36" t="b">
+        <v>125</v>
+      </c>
+      <c r="B125" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C125" s="42"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="17"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="59"/>
+      <c r="F125" s="14"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B126" s="36" t="b">
+        <v>126</v>
+      </c>
+      <c r="B126" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C126" s="36" t="b">
+      <c r="C126" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="17"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="59"/>
+      <c r="F126" s="14"/>
     </row>
     <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127" s="36" t="b">
+        <v>127</v>
+      </c>
+      <c r="B127" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C127" s="36" t="b">
+      <c r="C127" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="17"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="14"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" s="36" t="b">
+        <v>128</v>
+      </c>
+      <c r="B128" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C128" s="36" t="b">
+      <c r="C128" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D128" s="1"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="17"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="14"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" s="32"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="B129" s="35"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="14"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" s="36" t="b">
+        <v>130</v>
+      </c>
+      <c r="B130" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C130" s="36" t="b">
+      <c r="C130" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="17"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="59"/>
+      <c r="F130" s="14"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" s="36" t="b">
+        <v>131</v>
+      </c>
+      <c r="B131" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C131" s="36" t="b">
+      <c r="C131" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="17"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="59"/>
+      <c r="F131" s="14"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B132" s="32"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="17"/>
+        <v>132</v>
+      </c>
+      <c r="B132" s="35"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="66"/>
+      <c r="F132" s="14"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B133" s="36" t="b">
+        <v>133</v>
+      </c>
+      <c r="B133" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C133" s="36" t="b">
+      <c r="C133" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="17"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="14"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134" s="36" t="b">
+        <v>134</v>
+      </c>
+      <c r="B134" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C134" s="36" t="b">
+      <c r="C134" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="17"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="14"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135" s="36" t="b">
+        <v>135</v>
+      </c>
+      <c r="B135" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C135" s="36" t="b">
+      <c r="C135" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="17"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="14"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B136" s="36" t="b">
+        <v>136</v>
+      </c>
+      <c r="B136" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C136" s="36" t="b">
+      <c r="C136" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D136" s="1"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="17"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="59"/>
+      <c r="F136" s="14"/>
     </row>
     <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B137" s="36" t="b">
+        <v>137</v>
+      </c>
+      <c r="B137" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C137" s="36" t="b">
+      <c r="C137" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="17"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="59"/>
+      <c r="F137" s="14"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B138" s="36" t="b">
+        <v>138</v>
+      </c>
+      <c r="B138" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C138" s="36" t="b">
+      <c r="C138" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="D138" s="1"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="17"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="59"/>
+      <c r="F138" s="14"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" s="32"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="B139" s="35"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="58"/>
+      <c r="F139" s="14"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B140" s="38"/>
       <c r="C140" s="39"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="17"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="14"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" s="36" t="b">
+        <v>141</v>
+      </c>
+      <c r="B141" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C141" s="42"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="17"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="59"/>
+      <c r="F141" s="14"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B142" s="36" t="b">
+        <v>142</v>
+      </c>
+      <c r="B142" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C142" s="42"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="17"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="59"/>
+      <c r="F142" s="14"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143" s="36" t="b">
+        <v>143</v>
+      </c>
+      <c r="B143" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C143" s="42"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="17"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="59"/>
+      <c r="F143" s="14"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B144" s="36" t="b">
+        <v>144</v>
+      </c>
+      <c r="B144" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C144" s="42"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="17"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="59"/>
+      <c r="F144" s="14"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B145" s="36" t="b">
+        <v>145</v>
+      </c>
+      <c r="B145" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C145" s="42"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="17"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="14"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B146" s="38"/>
       <c r="C146" s="39"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="17"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147" s="36" t="b">
+        <v>147</v>
+      </c>
+      <c r="B147" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C147" s="42"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="17"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="14"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B148" s="36" t="b">
+        <v>148</v>
+      </c>
+      <c r="B148" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C148" s="42"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="17"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="59"/>
+      <c r="F148" s="14"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" s="36" t="b">
+        <v>149</v>
+      </c>
+      <c r="B149" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C149" s="42"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="17"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="59"/>
+      <c r="F149" s="14"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B150" s="36" t="b">
+        <v>150</v>
+      </c>
+      <c r="B150" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C150" s="42"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="17"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="14"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B151" s="36" t="b">
+        <v>151</v>
+      </c>
+      <c r="B151" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C151" s="42"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="17"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="14"/>
     </row>
     <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B152" s="32"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="17"/>
+        <v>152</v>
+      </c>
+      <c r="B152" s="35"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="58"/>
+      <c r="F152" s="14"/>
     </row>
     <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B153" s="36" t="b">
+        <v>153</v>
+      </c>
+      <c r="B153" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C153" s="42"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="17"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="14"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" s="36" t="b">
+        <v>154</v>
+      </c>
+      <c r="B154" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C154" s="42"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="17"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="14"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B155" s="36" t="b">
+        <v>155</v>
+      </c>
+      <c r="B155" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C155" s="42"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="17"/>
+      <c r="C155" s="43"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="59"/>
+      <c r="F155" s="14"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B156" s="36" t="b">
+        <v>156</v>
+      </c>
+      <c r="B156" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C156" s="42"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="17"/>
+      <c r="C156" s="43"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="59"/>
+      <c r="F156" s="14"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B157" s="36" t="b">
+        <v>157</v>
+      </c>
+      <c r="B157" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C157" s="42"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="17"/>
+      <c r="C157" s="43"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="59"/>
+      <c r="F157" s="14"/>
     </row>
     <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B158" s="36" t="b">
+        <v>158</v>
+      </c>
+      <c r="B158" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C158" s="42"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="17"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="59"/>
+      <c r="F158" s="14"/>
     </row>
     <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B159" s="36" t="b">
+        <v>159</v>
+      </c>
+      <c r="B159" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C159" s="42"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="17"/>
+      <c r="C159" s="43"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="59"/>
+      <c r="F159" s="14"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B160" s="36" t="b">
+        <v>160</v>
+      </c>
+      <c r="B160" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C160" s="42"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="17"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="59"/>
+      <c r="F160" s="14"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B161" s="36" t="b">
+        <v>161</v>
+      </c>
+      <c r="B161" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C161" s="42"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="17"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="59"/>
+      <c r="F161" s="14"/>
     </row>
     <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B162" s="36" t="b">
+        <v>162</v>
+      </c>
+      <c r="B162" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C162" s="42"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="20"/>
-      <c r="F162" s="17"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="59"/>
+      <c r="F162" s="14"/>
     </row>
     <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B163" s="36" t="b">
+        <v>163</v>
+      </c>
+      <c r="B163" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C163" s="42"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="17"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="14"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B164" s="36" t="b">
+        <v>164</v>
+      </c>
+      <c r="B164" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C164" s="42"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="17"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="59"/>
+      <c r="F164" s="14"/>
     </row>
     <row r="165" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B165" s="36" t="b">
+        <v>165</v>
+      </c>
+      <c r="B165" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C165" s="42"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="17"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="14"/>
     </row>
     <row r="166" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B166" s="36" t="b">
+        <v>166</v>
+      </c>
+      <c r="B166" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C166" s="42"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="17"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="14"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B167" s="36" t="b">
+        <v>167</v>
+      </c>
+      <c r="B167" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C167" s="42"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="17"/>
+      <c r="C167" s="43"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="59"/>
+      <c r="F167" s="14"/>
     </row>
     <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B168" s="36" t="b">
+        <v>168</v>
+      </c>
+      <c r="B168" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C168" s="42"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="17"/>
+      <c r="C168" s="43"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="59"/>
+      <c r="F168" s="14"/>
     </row>
     <row r="169" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B169" s="36" t="b">
+        <v>169</v>
+      </c>
+      <c r="B169" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C169" s="42"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="20"/>
-      <c r="F169" s="17"/>
+      <c r="C169" s="43"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="14"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="i3cvHxGiHpDdpSgelaFxWHocet5Gc8ki8aF8FMqRf7VBcO3X2RcRPeV6hPSkXc4nM8vezcMYYgcvhQDXwOlACg==" saltValue="QF2sgQO640J3QMKzT1uQmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" pivotTables="0"/>
   <mergeCells count="6">
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E1:F1"/>

--- a/services/core-api/app/templates/project/IRT_Template.xlsx
+++ b/services/core-api/app/templates/project/IRT_Template.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csquirre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\229916\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1D3F6A-F4F4-4172-BCD1-5ECD56B53DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6F828F-F880-4DDC-8363-47E5721C318F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="i6kNgOeI1UwySv+iGITYct85e+XY4lfbH0vpklbDnChcbLSFnwXNQoLI/UiSj/kxPkRLwuisE9Zh/zOm13cWiQ==" workbookSaltValue="sjli421dYO5cGC3fM9/rZA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA34635A-F533-43BD-A37F-7CDE45871B55}"/>
+    <workbookView xWindow="1452" yWindow="1452" windowWidth="21480" windowHeight="10800" xr2:uid="{DA34635A-F533-43BD-A37F-7CDE45871B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3910,7 +3910,7 @@
     <t xml:space="preserve">Complete the Required, Methods and Comments Sections below as applicable to the project.  Note that if Methods is selected then the comment section must be filled out.  </t>
   </si>
   <si>
-    <t>ADF</t>
+    <t>Mine Site Name:</t>
   </si>
 </sst>
 </file>
@@ -3920,7 +3920,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4008,12 +4008,6 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -4289,19 +4283,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4309,11 +4298,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
       <protection locked="0"/>
     </xf>
@@ -4325,19 +4314,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
       <protection locked="0"/>
     </xf>
@@ -4345,19 +4334,19 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4365,11 +4354,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -4377,11 +4366,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4393,19 +4382,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
       <protection locked="0"/>
     </xf>
@@ -4461,6 +4450,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5511,13 +5505,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>2019300</xdr:colOff>
           <xdr:row>105</xdr:row>
-          <xdr:rowOff>781050</xdr:rowOff>
+          <xdr:rowOff>784860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5578,11 +5572,11 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -5644,9 +5638,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5702,13 +5696,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5764,13 +5758,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5830,9 +5824,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5892,9 +5886,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5950,11 +5944,11 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -6012,11 +6006,11 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -6078,9 +6072,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6140,9 +6134,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6202,9 +6196,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6264,9 +6258,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6322,13 +6316,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6384,13 +6378,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6450,9 +6444,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6512,9 +6506,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6574,9 +6568,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6636,9 +6630,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6698,9 +6692,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6760,9 +6754,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6822,9 +6816,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6884,9 +6878,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6942,11 +6936,11 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -7004,11 +6998,11 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -7066,13 +7060,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7128,13 +7122,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7194,9 +7188,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7256,9 +7250,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7318,9 +7312,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7380,9 +7374,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7442,9 +7436,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7504,9 +7498,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7566,9 +7560,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7628,9 +7622,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7686,13 +7680,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7748,13 +7742,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7814,9 +7808,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7876,9 +7870,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7934,11 +7928,11 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -7996,11 +7990,11 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -8062,9 +8056,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8124,9 +8118,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8186,9 +8180,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8248,9 +8242,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8310,9 +8304,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8372,9 +8366,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8430,13 +8424,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8492,13 +8486,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8558,9 +8552,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8620,9 +8614,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8682,9 +8676,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8744,9 +8738,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8802,11 +8796,11 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -8864,11 +8858,11 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -8930,9 +8924,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8992,9 +8986,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9050,13 +9044,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9112,13 +9106,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9178,9 +9172,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9240,9 +9234,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9302,9 +9296,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9364,9 +9358,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9426,9 +9420,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9488,9 +9482,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9550,9 +9544,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9612,9 +9606,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9674,9 +9668,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9736,9 +9730,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9794,13 +9788,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9856,13 +9850,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9922,9 +9916,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9984,9 +9978,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10042,11 +10036,11 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -10108,9 +10102,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10170,9 +10164,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10232,9 +10226,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10294,9 +10288,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10356,9 +10350,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10418,9 +10412,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10480,9 +10474,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10542,9 +10536,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10604,9 +10598,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10662,13 +10656,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10728,9 +10722,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10790,9 +10784,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10852,9 +10846,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10914,9 +10908,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10972,11 +10966,11 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -11038,9 +11032,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11100,9 +11094,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11162,9 +11156,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11224,9 +11218,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11286,9 +11280,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11348,9 +11342,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11410,9 +11404,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11468,13 +11462,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11534,9 +11528,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>81</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11596,9 +11590,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11658,9 +11652,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11720,9 +11714,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11782,9 +11776,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11840,13 +11834,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11906,9 +11900,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>88</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11968,9 +11962,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12030,9 +12024,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12092,9 +12086,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12154,9 +12148,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>92</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12216,9 +12210,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12274,13 +12268,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12340,9 +12334,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>96</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12402,9 +12396,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>97</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12464,9 +12458,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>98</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12526,9 +12520,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>99</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12584,13 +12578,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>100</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>101</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12650,9 +12644,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>102</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12712,9 +12706,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12774,9 +12768,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>104</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12836,9 +12830,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>102</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12898,9 +12892,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12960,9 +12954,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>104</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13022,9 +13016,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>106</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13084,9 +13078,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>106</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13146,9 +13140,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13208,9 +13202,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13270,9 +13264,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13332,9 +13326,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13394,9 +13388,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13456,9 +13450,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13518,9 +13512,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13580,9 +13574,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13642,9 +13636,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>106</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13704,9 +13698,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>106</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13766,9 +13760,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13828,9 +13822,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13890,9 +13884,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13952,9 +13946,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14014,9 +14008,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14076,9 +14070,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14138,9 +14132,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14200,9 +14194,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14262,9 +14256,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>106</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14324,9 +14318,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>106</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14386,9 +14380,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14448,9 +14442,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14510,9 +14504,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14572,9 +14566,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14634,9 +14628,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14696,9 +14690,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14758,9 +14752,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14820,9 +14814,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14882,9 +14876,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>113</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14944,9 +14938,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>114</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15002,13 +14996,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>114</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>115</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15068,9 +15062,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>116</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15130,9 +15124,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>117</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15192,9 +15186,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>118</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15254,9 +15248,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>119</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15316,9 +15310,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15378,9 +15372,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>121</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15436,11 +15430,11 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>122</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>122</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -15502,9 +15496,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>123</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15564,9 +15558,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>124</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15626,9 +15620,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>125</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15688,9 +15682,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>126</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15750,9 +15744,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>127</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15812,9 +15806,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>125</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15874,9 +15868,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>126</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15936,9 +15930,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>127</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15998,9 +15992,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>106</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16060,9 +16054,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>106</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16122,9 +16116,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16184,9 +16178,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16246,9 +16240,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16308,9 +16302,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16370,9 +16364,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16432,9 +16426,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16494,9 +16488,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16556,9 +16550,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16618,9 +16612,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>113</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16680,9 +16674,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>114</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16738,13 +16732,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>114</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>115</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16804,9 +16798,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>116</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16866,9 +16860,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>117</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16928,9 +16922,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>118</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16990,9 +16984,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>119</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17052,9 +17046,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17114,9 +17108,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>121</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17172,11 +17166,11 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>122</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>122</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -17238,9 +17232,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>123</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17300,9 +17294,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>124</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17362,9 +17356,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>125</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17424,9 +17418,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>126</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17486,9 +17480,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>127</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17548,9 +17542,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>125</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17610,9 +17604,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>126</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17672,9 +17666,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>127</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17730,13 +17724,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>128</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>129</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17792,13 +17786,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>128</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>129</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17858,9 +17852,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>130</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17920,9 +17914,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>130</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17982,9 +17976,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>132</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18044,9 +18038,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>132</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18106,9 +18100,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>133</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18168,9 +18162,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>133</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18230,9 +18224,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>134</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18292,9 +18286,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>134</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18354,9 +18348,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>135</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18416,9 +18410,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>135</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18474,13 +18468,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>135</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>136</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18536,13 +18530,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>135</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>136</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18602,9 +18596,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>137</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18664,9 +18658,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>137</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18726,9 +18720,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>132</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18788,9 +18782,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>132</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18850,9 +18844,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>133</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18912,9 +18906,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>133</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18974,9 +18968,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>134</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19036,9 +19030,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>134</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19098,9 +19092,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>135</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19160,9 +19154,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>135</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19218,13 +19212,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>135</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>136</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19280,13 +19274,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>135</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>136</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19346,9 +19340,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>137</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19408,9 +19402,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>137</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19470,9 +19464,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>140</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19532,9 +19526,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>141</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19594,9 +19588,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>142</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19652,13 +19646,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>142</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>143</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19718,9 +19712,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>144</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19780,9 +19774,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>146</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19842,9 +19836,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>147</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19904,9 +19898,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>148</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19966,9 +19960,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>149</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20024,13 +20018,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>149</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>150</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20090,9 +20084,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>152</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20152,9 +20146,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>153</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20214,9 +20208,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>154</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20276,9 +20270,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>155</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20338,9 +20332,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>156</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20396,13 +20390,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>156</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>157</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20462,9 +20456,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>158</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20524,9 +20518,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>159</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20586,9 +20580,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>160</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20648,9 +20642,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>161</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20710,9 +20704,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>162</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20772,9 +20766,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>163</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20830,13 +20824,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>163</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>164</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20896,9 +20890,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>165</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20958,9 +20952,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>166</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -21020,9 +21014,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>167</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -21082,9 +21076,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>168</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -21140,13 +21134,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -21206,9 +21200,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>81</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -21268,9 +21262,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -21330,9 +21324,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>182880</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -21686,19 +21680,19 @@
   </sheetPr>
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="80.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -21711,62 +21705,62 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
+      <c r="F1" s="65"/>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -21774,7 +21768,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -21792,2002 +21786,2002 @@
       </c>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="58"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="26" t="b">
+      <c r="B10" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C10" s="27" t="b">
+      <c r="C10" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="59"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="26" t="b">
+      <c r="B11" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="27" t="b">
+      <c r="C11" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="59"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="60"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="26" t="b">
+      <c r="B13" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="27" t="b">
+      <c r="C13" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="59"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="26" t="b">
+      <c r="B14" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C14" s="27" t="b">
+      <c r="C14" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="59"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="26" t="b">
+      <c r="B15" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C15" s="27" t="b">
+      <c r="C15" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="26" t="b">
+      <c r="B16" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C16" s="27" t="b">
+      <c r="C16" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="26" t="b">
+      <c r="B17" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="27" t="b">
+      <c r="C17" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="26" t="b">
+      <c r="B18" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="27" t="b">
+      <c r="C18" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="26" t="b">
+      <c r="B19" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="27" t="b">
+      <c r="C19" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="26" t="b">
+      <c r="B20" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="59"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="26" t="b">
+      <c r="B21" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="27" t="b">
+      <c r="C21" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="61"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="33" t="b">
+      <c r="B23" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C23" s="34" t="b">
+      <c r="C23" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="59"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="33" t="b">
+      <c r="B24" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="34" t="b">
+      <c r="C24" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="59"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="33" t="b">
+      <c r="B25" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C25" s="34" t="b">
+      <c r="C25" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="59"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="58"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="33" t="b">
+      <c r="B27" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C27" s="34" t="b">
+      <c r="C27" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="59"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="56"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="33" t="b">
+      <c r="B28" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C28" s="34" t="b">
+      <c r="C28" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="59"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="56"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="60"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="33" t="b">
+      <c r="B30" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C30" s="34" t="b">
+      <c r="C30" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="59"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="33" t="b">
+      <c r="B31" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C31" s="34" t="b">
+      <c r="C31" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="59"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="33" t="b">
+      <c r="B32" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C32" s="34" t="b">
+      <c r="C32" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="59"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="33" t="b">
+      <c r="B33" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C33" s="34" t="b">
+      <c r="C33" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="59"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="14"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="33" t="b">
+      <c r="B34" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C34" s="34" t="b">
+      <c r="C34" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="59"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="62"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="33" t="b">
+      <c r="B36" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="34" t="b">
+      <c r="C36" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="59"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="56"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="33" t="b">
+      <c r="B37" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C37" s="34" t="b">
+      <c r="C37" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="59"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="56"/>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="33" t="b">
+      <c r="B38" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C38" s="34" t="b">
+      <c r="C38" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="59"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="56"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="33" t="b">
+      <c r="B40" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C40" s="34" t="b">
+      <c r="C40" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="59"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="56"/>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="33" t="b">
+      <c r="B41" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C41" s="34" t="b">
+      <c r="C41" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="59"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="56"/>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="60"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="57"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="33" t="b">
+      <c r="B43" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C43" s="34" t="b">
+      <c r="C43" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="59"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="56"/>
       <c r="F43" s="14"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="33" t="b">
+      <c r="B44" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C44" s="34" t="b">
+      <c r="C44" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="59"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="56"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="33" t="b">
+      <c r="B45" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C45" s="34" t="b">
+      <c r="C45" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="59"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="56"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="60"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="57"/>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="33" t="b">
+      <c r="B47" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C47" s="34" t="b">
+      <c r="C47" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="59"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="56"/>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="33" t="b">
+      <c r="B48" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C48" s="34" t="b">
+      <c r="C48" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="59"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="33" t="b">
+      <c r="B49" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C49" s="34" t="b">
+      <c r="C49" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="59"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="56"/>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="33" t="b">
+      <c r="B50" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C50" s="34" t="b">
+      <c r="C50" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="59"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="33" t="b">
+      <c r="B51" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C51" s="34" t="b">
+      <c r="C51" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="59"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="56"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="33" t="b">
+      <c r="B52" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C52" s="34" t="b">
+      <c r="C52" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="59"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="56"/>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="33" t="b">
+      <c r="B53" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C53" s="34" t="b">
+      <c r="C53" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="59"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="58"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="55"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="33" t="b">
+      <c r="B55" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="59"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="56"/>
       <c r="F55" s="14"/>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="33" t="b">
+      <c r="B56" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="59"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="56"/>
       <c r="F56" s="14"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="33" t="b">
+      <c r="B57" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="59"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="56"/>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="33" t="b">
+      <c r="B58" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C58" s="43"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="59"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="56"/>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="62"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="59"/>
       <c r="F59" s="14"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="33" t="b">
+      <c r="B60" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="59"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="56"/>
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="33" t="b">
+      <c r="B61" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="59"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="56"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="33" t="b">
+      <c r="B62" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C62" s="43"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="59"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="56"/>
       <c r="F62" s="14"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="33" t="b">
+      <c r="B63" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="59"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="56"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="33" t="b">
+      <c r="B64" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="59"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="56"/>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="33" t="b">
+      <c r="B65" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="59"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="56"/>
       <c r="F65" s="14"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="33" t="b">
+      <c r="B66" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="59"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="56"/>
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="33" t="b">
+      <c r="B67" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="59"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="56"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="33" t="b">
+      <c r="B68" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="59"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="56"/>
       <c r="F68" s="14"/>
     </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="33" t="b">
+      <c r="B69" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="59"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="14"/>
     </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="33" t="b">
+      <c r="B70" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="59"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="56"/>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="58"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="55"/>
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="33" t="b">
+      <c r="B72" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="63"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="60"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="46"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="64"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="61"/>
       <c r="F73" s="14"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="33" t="b">
+      <c r="B74" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="59"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="56"/>
       <c r="F74" s="14"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="33" t="b">
+      <c r="B75" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="59"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="56"/>
       <c r="F75" s="14"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="33" t="b">
+      <c r="B76" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C76" s="43"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="59"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="56"/>
       <c r="F76" s="14"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="33" t="b">
+      <c r="B77" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C77" s="43"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="59"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="56"/>
       <c r="F77" s="14"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="33" t="b">
+      <c r="B78" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C78" s="43"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="59"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="56"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="33" t="b">
+      <c r="B79" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C79" s="43"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="59"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="56"/>
       <c r="F79" s="14"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="33" t="b">
+      <c r="B80" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C80" s="43"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="59"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="56"/>
       <c r="F80" s="14"/>
     </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="33" t="b">
+      <c r="B81" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C81" s="33" t="b">
+      <c r="C81" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="59"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="56"/>
       <c r="F81" s="14"/>
     </row>
-    <row r="82" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="33" t="b">
+      <c r="B82" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C82" s="34" t="b">
+      <c r="C82" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="59"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="56"/>
       <c r="F82" s="14"/>
     </row>
-    <row r="83" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="33" t="b">
+      <c r="B83" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C83" s="33" t="b">
+      <c r="C83" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="59"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="56"/>
       <c r="F83" s="14"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="33" t="b">
+      <c r="B84" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C84" s="34" t="b">
+      <c r="C84" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="59"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="56"/>
       <c r="F84" s="14"/>
     </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="60"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="57"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="33" t="b">
+      <c r="B86" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C86" s="43"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="59"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="56"/>
       <c r="F86" s="14"/>
     </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="33" t="b">
+      <c r="B87" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C87" s="43"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="59"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="14"/>
     </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="33" t="b">
+      <c r="B88" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C88" s="43"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="59"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="56"/>
       <c r="F88" s="14"/>
     </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="33" t="b">
+      <c r="B89" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C89" s="43"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="59"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="56"/>
       <c r="F89" s="14"/>
     </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="33" t="b">
+      <c r="B90" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C90" s="43"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="59"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="56"/>
       <c r="F90" s="14"/>
     </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="33" t="b">
+      <c r="B91" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C91" s="43"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="59"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="56"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="33" t="b">
+      <c r="B92" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C92" s="43"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="59"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="56"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="33" t="b">
+      <c r="B93" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C93" s="43"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="59"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="56"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="33" t="b">
+      <c r="B94" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C94" s="43"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="59"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="56"/>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="33" t="b">
+      <c r="B95" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="59"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="56"/>
       <c r="F95" s="14"/>
     </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="50"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="60"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="57"/>
       <c r="F96" s="14"/>
     </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="33" t="b">
+      <c r="B97" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C97" s="43"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="59"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="56"/>
       <c r="F97" s="14"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="33" t="b">
+      <c r="B98" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C98" s="43"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="59"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="56"/>
       <c r="F98" s="14"/>
     </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="33" t="b">
+      <c r="B99" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C99" s="43"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="59"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="56"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="33" t="b">
+      <c r="B100" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C100" s="43"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="59"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="56"/>
       <c r="F100" s="14"/>
     </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="35"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="58"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="55"/>
       <c r="F101" s="14"/>
     </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="33" t="b">
+      <c r="B102" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C102" s="43"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="59"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="56"/>
       <c r="F102" s="14"/>
     </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="33" t="b">
+      <c r="B103" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C103" s="33" t="b">
+      <c r="C103" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="59"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="56"/>
       <c r="F103" s="14"/>
     </row>
-    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="33" t="b">
+      <c r="B104" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C104" s="33" t="b">
+      <c r="C104" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="59"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="56"/>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="33" t="b">
+      <c r="B105" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C105" s="33" t="b">
+      <c r="C105" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="59"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="56"/>
       <c r="F105" s="14"/>
     </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="38"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="60"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="57"/>
       <c r="F106" s="14"/>
     </row>
-    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="33" t="b">
+      <c r="B107" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C107" s="33" t="b">
+      <c r="C107" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D107" s="32"/>
-      <c r="E107" s="59"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="56"/>
       <c r="F107" s="14"/>
     </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="33" t="b">
+      <c r="B108" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C108" s="33" t="b">
+      <c r="C108" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D108" s="32"/>
-      <c r="E108" s="59"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="56"/>
       <c r="F108" s="14"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="40"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="62"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="59"/>
       <c r="F109" s="14"/>
     </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="33" t="b">
+      <c r="B110" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C110" s="33" t="b">
+      <c r="C110" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D110" s="32"/>
-      <c r="E110" s="59"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="56"/>
       <c r="F110" s="14"/>
     </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="33" t="b">
+      <c r="B111" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C111" s="33" t="b">
+      <c r="C111" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D111" s="32"/>
-      <c r="E111" s="59"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="56"/>
       <c r="F111" s="14"/>
     </row>
-    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="33" t="b">
+      <c r="B112" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C112" s="33" t="b">
+      <c r="C112" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D112" s="32"/>
-      <c r="E112" s="59"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="56"/>
       <c r="F112" s="14"/>
     </row>
-    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="52"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="65"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="62"/>
       <c r="F113" s="14"/>
     </row>
-    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="33" t="b">
+      <c r="B114" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C114" s="43"/>
-      <c r="D114" s="55"/>
-      <c r="E114" s="59"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="56"/>
       <c r="F114" s="14"/>
     </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="33" t="b">
+      <c r="B115" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C115" s="43"/>
-      <c r="D115" s="55"/>
-      <c r="E115" s="59"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="56"/>
       <c r="F115" s="14"/>
     </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="33" t="b">
+      <c r="B116" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C116" s="43"/>
-      <c r="D116" s="55"/>
-      <c r="E116" s="59"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="56"/>
       <c r="F116" s="14"/>
     </row>
-    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="33" t="b">
+      <c r="B117" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C117" s="43"/>
-      <c r="D117" s="55"/>
-      <c r="E117" s="59"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="56"/>
       <c r="F117" s="14"/>
     </row>
-    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="33" t="b">
+      <c r="B118" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C118" s="43"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="59"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="56"/>
       <c r="F118" s="14"/>
     </row>
-    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="33" t="b">
+      <c r="B119" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C119" s="43"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="59"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="56"/>
       <c r="F119" s="14"/>
     </row>
-    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="33" t="b">
+      <c r="B120" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C120" s="43"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="59"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="56"/>
       <c r="F120" s="14"/>
     </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="33" t="b">
+      <c r="B121" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C121" s="43"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="59"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="56"/>
       <c r="F121" s="14"/>
     </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="33" t="b">
+      <c r="B122" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C122" s="43"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="59"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="56"/>
       <c r="F122" s="14"/>
     </row>
-    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="33" t="b">
+      <c r="B123" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C123" s="43"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="59"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="56"/>
       <c r="F123" s="14"/>
     </row>
-    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="33" t="b">
+      <c r="B124" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C124" s="43"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="59"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="56"/>
       <c r="F124" s="14"/>
     </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="33" t="b">
+      <c r="B125" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C125" s="43"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="59"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="56"/>
       <c r="F125" s="14"/>
     </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="33" t="b">
+      <c r="B126" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C126" s="33" t="b">
+      <c r="C126" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D126" s="28"/>
-      <c r="E126" s="59"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="56"/>
       <c r="F126" s="14"/>
     </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="33" t="b">
+      <c r="B127" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C127" s="33" t="b">
+      <c r="C127" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D127" s="28"/>
-      <c r="E127" s="59"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="56"/>
       <c r="F127" s="14"/>
     </row>
-    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="33" t="b">
+      <c r="B128" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C128" s="33" t="b">
+      <c r="C128" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D128" s="28"/>
-      <c r="E128" s="59"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="56"/>
       <c r="F128" s="14"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="35"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="58"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="55"/>
       <c r="F129" s="14"/>
     </row>
-    <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="33" t="b">
+      <c r="B130" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C130" s="33" t="b">
+      <c r="C130" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D130" s="28"/>
-      <c r="E130" s="59"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="56"/>
       <c r="F130" s="14"/>
     </row>
-    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="33" t="b">
+      <c r="B131" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C131" s="33" t="b">
+      <c r="C131" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D131" s="28"/>
-      <c r="E131" s="59"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="56"/>
       <c r="F131" s="14"/>
     </row>
-    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="66"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="63"/>
       <c r="F132" s="14"/>
     </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="33" t="b">
+      <c r="B133" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C133" s="33" t="b">
+      <c r="C133" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D133" s="28"/>
-      <c r="E133" s="59"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="56"/>
       <c r="F133" s="14"/>
     </row>
-    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="33" t="b">
+      <c r="B134" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C134" s="33" t="b">
+      <c r="C134" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D134" s="28"/>
-      <c r="E134" s="59"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="56"/>
       <c r="F134" s="14"/>
     </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="33" t="b">
+      <c r="B135" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C135" s="33" t="b">
+      <c r="C135" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D135" s="28"/>
-      <c r="E135" s="59"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="56"/>
       <c r="F135" s="14"/>
     </row>
-    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="33" t="b">
+      <c r="B136" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C136" s="33" t="b">
+      <c r="C136" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D136" s="28"/>
-      <c r="E136" s="59"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="56"/>
       <c r="F136" s="14"/>
     </row>
-    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="33" t="b">
+      <c r="B137" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C137" s="33" t="b">
+      <c r="C137" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D137" s="28"/>
-      <c r="E137" s="59"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="56"/>
       <c r="F137" s="14"/>
     </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="33" t="b">
+      <c r="B138" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C138" s="33" t="b">
+      <c r="C138" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="D138" s="28"/>
-      <c r="E138" s="59"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="56"/>
       <c r="F138" s="14"/>
     </row>
-    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="35"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="58"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="55"/>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="38"/>
-      <c r="C140" s="39"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="60"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="57"/>
       <c r="F140" s="14"/>
     </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="33" t="b">
+      <c r="B141" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C141" s="43"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="59"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="56"/>
       <c r="F141" s="14"/>
     </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="33" t="b">
+      <c r="B142" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="32"/>
-      <c r="E142" s="59"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="56"/>
       <c r="F142" s="14"/>
     </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="33" t="b">
+      <c r="B143" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C143" s="43"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="59"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="56"/>
       <c r="F143" s="14"/>
     </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="33" t="b">
+      <c r="B144" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C144" s="43"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="59"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="56"/>
       <c r="F144" s="14"/>
     </row>
-    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="33" t="b">
+      <c r="B145" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C145" s="43"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="59"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="56"/>
       <c r="F145" s="14"/>
     </row>
-    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="38"/>
-      <c r="C146" s="39"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="60"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="57"/>
       <c r="F146" s="14"/>
     </row>
-    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="33" t="b">
+      <c r="B147" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C147" s="43"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="59"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="56"/>
       <c r="F147" s="14"/>
     </row>
-    <row r="148" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="33" t="b">
+      <c r="B148" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C148" s="43"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="59"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="56"/>
       <c r="F148" s="14"/>
     </row>
-    <row r="149" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B149" s="33" t="b">
+      <c r="B149" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C149" s="43"/>
-      <c r="D149" s="32"/>
-      <c r="E149" s="59"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="56"/>
       <c r="F149" s="14"/>
     </row>
-    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="33" t="b">
+      <c r="B150" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C150" s="43"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="59"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="56"/>
       <c r="F150" s="14"/>
     </row>
-    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="33" t="b">
+      <c r="B151" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C151" s="43"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="59"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="56"/>
       <c r="F151" s="14"/>
     </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="35"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="58"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="55"/>
       <c r="F152" s="14"/>
     </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="33" t="b">
+      <c r="B153" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C153" s="43"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="59"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="56"/>
       <c r="F153" s="14"/>
     </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="33" t="b">
+      <c r="B154" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C154" s="43"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="59"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="56"/>
       <c r="F154" s="14"/>
     </row>
-    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="33" t="b">
+      <c r="B155" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C155" s="43"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="59"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="56"/>
       <c r="F155" s="14"/>
     </row>
-    <row r="156" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="33" t="b">
+      <c r="B156" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C156" s="43"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="59"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="56"/>
       <c r="F156" s="14"/>
     </row>
-    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="33" t="b">
+      <c r="B157" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C157" s="43"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="59"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="56"/>
       <c r="F157" s="14"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="33" t="b">
+      <c r="B158" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C158" s="43"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="59"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="56"/>
       <c r="F158" s="14"/>
     </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="33" t="b">
+      <c r="B159" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C159" s="43"/>
-      <c r="D159" s="28"/>
-      <c r="E159" s="59"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="56"/>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="33" t="b">
+      <c r="B160" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C160" s="43"/>
-      <c r="D160" s="28"/>
-      <c r="E160" s="59"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="56"/>
       <c r="F160" s="14"/>
     </row>
-    <row r="161" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="33" t="b">
+      <c r="B161" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C161" s="43"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="59"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="56"/>
       <c r="F161" s="14"/>
     </row>
-    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="33" t="b">
+      <c r="B162" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C162" s="43"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="59"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="56"/>
       <c r="F162" s="14"/>
     </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="33" t="b">
+      <c r="B163" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C163" s="43"/>
-      <c r="D163" s="28"/>
-      <c r="E163" s="59"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="56"/>
       <c r="F163" s="14"/>
     </row>
-    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="33" t="b">
+      <c r="B164" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C164" s="43"/>
-      <c r="D164" s="28"/>
-      <c r="E164" s="59"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="56"/>
       <c r="F164" s="14"/>
     </row>
-    <row r="165" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="33" t="b">
+      <c r="B165" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C165" s="43"/>
-      <c r="D165" s="28"/>
-      <c r="E165" s="59"/>
+      <c r="C165" s="40"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="56"/>
       <c r="F165" s="14"/>
     </row>
-    <row r="166" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="33" t="b">
+      <c r="B166" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C166" s="43"/>
-      <c r="D166" s="28"/>
-      <c r="E166" s="59"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="56"/>
       <c r="F166" s="14"/>
     </row>
-    <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="33" t="b">
+      <c r="B167" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C167" s="43"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="59"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="56"/>
       <c r="F167" s="14"/>
     </row>
-    <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="33" t="b">
+      <c r="B168" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C168" s="43"/>
-      <c r="D168" s="28"/>
-      <c r="E168" s="59"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="56"/>
       <c r="F168" s="14"/>
     </row>
-    <row r="169" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="33" t="b">
+      <c r="B169" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="C169" s="43"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="59"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="56"/>
       <c r="F169" s="14"/>
     </row>
   </sheetData>
@@ -23819,13 +23813,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>2019300</xdr:colOff>
                     <xdr:row>105</xdr:row>
-                    <xdr:rowOff>781050</xdr:rowOff>
+                    <xdr:rowOff>784860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>495300</xdr:colOff>
                     <xdr:row>120</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23841,11 +23835,11 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -23867,9 +23861,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23885,13 +23879,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23907,13 +23901,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23933,9 +23927,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23955,9 +23949,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23973,11 +23967,11 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -23995,11 +23989,11 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -24021,9 +24015,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24043,9 +24037,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24065,9 +24059,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24087,9 +24081,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24105,13 +24099,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24127,13 +24121,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24153,9 +24147,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24175,9 +24169,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24197,9 +24191,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24219,9 +24213,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24241,9 +24235,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24263,9 +24257,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24285,9 +24279,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24307,9 +24301,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24325,11 +24319,11 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -24347,11 +24341,11 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -24369,13 +24363,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24391,13 +24385,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24417,9 +24411,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24439,9 +24433,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24461,9 +24455,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24483,9 +24477,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24505,9 +24499,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24527,9 +24521,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24549,9 +24543,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24571,9 +24565,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24589,13 +24583,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24611,13 +24605,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24637,9 +24631,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24659,9 +24653,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24677,11 +24671,11 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -24699,11 +24693,11 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -24725,9 +24719,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24747,9 +24741,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24769,9 +24763,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24791,9 +24785,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24813,9 +24807,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24835,9 +24829,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24853,13 +24847,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24875,13 +24869,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24901,9 +24895,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24923,9 +24917,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24945,9 +24939,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24967,9 +24961,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -24985,11 +24979,11 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -25007,11 +25001,11 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -25033,9 +25027,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25055,9 +25049,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25073,13 +25067,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25095,13 +25089,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25121,9 +25115,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25143,9 +25137,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25165,9 +25159,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25187,9 +25181,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25209,9 +25203,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25231,9 +25225,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25253,9 +25247,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25275,9 +25269,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25297,9 +25291,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25319,9 +25313,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25337,13 +25331,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25359,13 +25353,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25385,9 +25379,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25407,9 +25401,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25425,11 +25419,11 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -25451,9 +25445,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25473,9 +25467,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25495,9 +25489,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25517,9 +25511,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25539,9 +25533,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25561,9 +25555,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25583,9 +25577,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>62</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25605,9 +25599,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25627,9 +25621,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25645,13 +25639,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>65</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25671,9 +25665,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25693,9 +25687,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25715,9 +25709,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25737,9 +25731,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25755,11 +25749,11 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>71</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -25781,9 +25775,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25803,9 +25797,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>74</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25825,9 +25819,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25847,9 +25841,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>76</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25869,9 +25863,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>77</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25891,9 +25885,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>78</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25913,9 +25907,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25931,13 +25925,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25957,9 +25951,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>81</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25979,9 +25973,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26001,9 +25995,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26023,9 +26017,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26045,9 +26039,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26063,13 +26057,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26089,9 +26083,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>88</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26111,9 +26105,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>89</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26133,9 +26127,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>90</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26155,9 +26149,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>91</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26177,9 +26171,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>92</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26199,9 +26193,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>93</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26217,13 +26211,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>93</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>94</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26243,9 +26237,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>96</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26265,9 +26259,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>97</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26287,9 +26281,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>98</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26309,9 +26303,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>99</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26327,13 +26321,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>100</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>101</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26353,9 +26347,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>102</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26375,9 +26369,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26397,9 +26391,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>104</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26419,9 +26413,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>102</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26441,9 +26435,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26463,9 +26457,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>104</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26485,9 +26479,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>106</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26507,9 +26501,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>106</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26529,9 +26523,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>107</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26551,9 +26545,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>107</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26573,9 +26567,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>109</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26595,9 +26589,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>109</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26617,9 +26611,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>110</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26639,9 +26633,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>110</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26661,9 +26655,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26683,9 +26677,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26705,9 +26699,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>106</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26727,9 +26721,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>106</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26749,9 +26743,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>107</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26771,9 +26765,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>107</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26793,9 +26787,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>109</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26815,9 +26809,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>109</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26837,9 +26831,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>110</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26859,9 +26853,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>110</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26881,9 +26875,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26903,9 +26897,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26925,9 +26919,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>106</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26947,9 +26941,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>106</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26969,9 +26963,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>107</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26991,9 +26985,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>107</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27013,9 +27007,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>109</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27035,9 +27029,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>109</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27057,9 +27051,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>110</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27079,9 +27073,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>110</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27101,9 +27095,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27123,9 +27117,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27145,9 +27139,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>113</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27167,9 +27161,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>114</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27185,13 +27179,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>114</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>115</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27211,9 +27205,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>116</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27233,9 +27227,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>117</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27255,9 +27249,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>118</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27277,9 +27271,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>119</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27299,9 +27293,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>120</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27321,9 +27315,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>121</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27339,11 +27333,11 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>122</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>122</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -27365,9 +27359,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>123</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27387,9 +27381,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>124</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27409,9 +27403,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>125</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27431,9 +27425,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>126</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27453,9 +27447,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>127</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27475,9 +27469,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>125</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27497,9 +27491,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>126</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27519,9 +27513,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>127</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27541,9 +27535,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>106</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27563,9 +27557,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>106</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27585,9 +27579,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>107</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27607,9 +27601,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>107</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27629,9 +27623,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>109</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27651,9 +27645,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>109</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27673,9 +27667,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>110</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27695,9 +27689,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>110</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27717,9 +27711,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27739,9 +27733,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27761,9 +27755,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>113</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27783,9 +27777,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>114</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27801,13 +27795,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>114</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>115</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27827,9 +27821,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>116</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27849,9 +27843,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>117</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27871,9 +27865,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>118</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27893,9 +27887,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>119</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27915,9 +27909,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>120</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27937,9 +27931,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>121</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -27955,11 +27949,11 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>122</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>122</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -27981,9 +27975,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>123</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28003,9 +27997,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>124</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28025,9 +28019,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>125</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28047,9 +28041,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>126</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28069,9 +28063,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>127</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28091,9 +28085,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>125</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28113,9 +28107,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>126</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28135,9 +28129,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>127</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28153,13 +28147,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>128</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>129</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28175,13 +28169,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>128</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>129</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28201,9 +28195,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>130</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28223,9 +28217,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>130</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28245,9 +28239,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>132</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28267,9 +28261,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>132</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28289,9 +28283,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>133</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28311,9 +28305,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>133</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28333,9 +28327,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>134</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28355,9 +28349,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>134</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28377,9 +28371,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>135</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28399,9 +28393,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>135</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28417,13 +28411,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>135</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>136</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28439,13 +28433,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>135</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>136</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28465,9 +28459,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>137</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28487,9 +28481,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>137</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28509,9 +28503,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>132</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28531,9 +28525,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>132</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28553,9 +28547,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>133</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28575,9 +28569,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>133</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28597,9 +28591,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>134</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28619,9 +28613,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>134</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28641,9 +28635,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>135</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28663,9 +28657,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>135</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28681,13 +28675,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>135</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>136</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28703,13 +28697,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>135</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>136</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28729,9 +28723,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>137</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28751,9 +28745,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>137</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28773,9 +28767,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>140</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28795,9 +28789,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>141</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28817,9 +28811,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>142</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28835,13 +28829,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>142</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>143</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28861,9 +28855,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>144</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28883,9 +28877,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>146</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28905,9 +28899,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>147</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28927,9 +28921,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>148</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28949,9 +28943,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>149</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28967,13 +28961,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>149</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>150</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -28993,9 +28987,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>152</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29015,9 +29009,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>153</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29037,9 +29031,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>154</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29059,9 +29053,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>155</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29081,9 +29075,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>156</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29099,13 +29093,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>156</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>157</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29125,9 +29119,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>158</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29147,9 +29141,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>159</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29169,9 +29163,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>160</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29191,9 +29185,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>161</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29213,9 +29207,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>162</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29235,9 +29229,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>163</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29253,13 +29247,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>163</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>164</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29279,9 +29273,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>165</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29301,9 +29295,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>166</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29323,9 +29317,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>167</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29345,9 +29339,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>168</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29363,13 +29357,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29389,9 +29383,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>81</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29411,9 +29405,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -29433,9 +29427,9 @@
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>182880</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
